--- a/src/test/java/data/url.xlsx
+++ b/src/test/java/data/url.xlsx
@@ -133,14 +133,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="94.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.3"/>
   </cols>
@@ -149,10 +150,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
